--- a/rating/output.xlsx
+++ b/rating/output.xlsx
@@ -4122,11 +4122,7 @@
           <t>Video dataset is constructed. Public Data and code is expected to release.</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="E137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -5003,11 +4999,7 @@
           <t>Domain-Prior-Induced Structural MRI Adaptation for Clinical Progression Prediction of Subjective Cognitive Decline</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
           <t>It is difficult to judge the reproducibility of the paper as the parameter settings are unclear.</t>
@@ -5922,11 +5914,7 @@
           <t>Too much details are missing for the whole model, so it will be hard to reproduce this method only from paper.</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
           <t>The reproducibility is good for the clear elaboration in method detail.</t>
@@ -6138,11 +6126,7 @@
           <t>Not mentioned</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
           <t>While the code is not publicly available (and the reproducibility checklist says so), I believe the authors might have used the original repositories for VQ-VAE and DDPM which are publicly available. Even though implementation details are not given, it might be possible to reproduce the method partially. Furthermore, the results are presented using public datasets.</t>
@@ -6403,11 +6387,7 @@
           <t>Flat-aware Cross-stage Distilled Framework for Imbalanced Medical Image Classification</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr">
         <is>
           <t>Good. Experiments were performed on public datasets and the authors plan to release code after peer-review according to the checklist.</t>
@@ -6953,11 +6933,7 @@
           <t>The code is not available but the authors guarantee that they will provide it if the paper is accepted. In that case I do not have other way to proof the reproducibility. The method described looks clear and it looks as reproducible, but the results cannot be checked without the code and the dataset.</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="E242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -8519,11 +8495,7 @@
           <t>The training datasets and the associated codes are disclosed in this work. The implemented code specific to this method however is not disclosed. The amount of implementation details provided in the main text and the supplementary materials is sufficient.</t>
         </is>
       </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="E300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -9266,11 +9238,7 @@
           <t>Good. Sufficient details are provided to reproduce the work. Dataset will not be public but it's understandable.</t>
         </is>
       </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="D328" t="inlineStr"/>
       <c r="E328" t="inlineStr">
         <is>
           <t>1, The localization of rectum region needs more details since it contains both tumor tissue and other benign tissues. this paper doses not specify either the whole rectum region or ROI of tumor is utilized in the experiment. 2, In Fig 1, the input of this CNN Network and H-W pool need to be specified.  From 4th layer to 5th layer, the procedure is ambiguous. The structure of every layer should be plotted in Fig 1 or specified in Section 2.2.  3, Which feature is omitted in the GLCM features since PyRadiomics has 24 GLCM features while this paper chooses 23 features? 4, Some important training parameters are also absent, such as epochs and batch size.</t>
@@ -12740,11 +12708,7 @@
           <t>Semi-supervised learning with data harmonisation for biomarker discovery from resting state fMRI</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="C457" t="inlineStr"/>
       <c r="D457" t="inlineStr">
         <is>
           <t>Reproducibility is good</t>
@@ -13037,11 +13001,7 @@
           <t>Show, Attend and Detect: Towards Fine-grained Assessment of Abdominal Aortic Calcification on Vertebral Fracture Assessment Scans</t>
         </is>
       </c>
-      <c r="C468" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C468" t="inlineStr"/>
       <c r="D468" t="inlineStr">
         <is>
           <t>The evaluation uses a public dataset and the model is clearly described.</t>
@@ -13587,11 +13547,7 @@
           <t>The implementation detail of the proposed method is well presented, as well as the experimental settings.</t>
         </is>
       </c>
-      <c r="E488" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="E488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" s="1" t="inlineStr">
@@ -14415,11 +14371,7 @@
           <t>The authors have given enough details to reproduce this work.</t>
         </is>
       </c>
-      <c r="D519" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="D519" t="inlineStr"/>
       <c r="E519" t="inlineStr">
         <is>
           <t>The authors made an effort to make their paper reproductible, which lots of setup values. I did not find in the paper or in supplementary material a way to access the code, whereas it seems to be done according to the reproducibility checklist filled in by the authors. Maybe this is not possible at this stage. The authors detailed the hyperparameters values of the neural network, of the method, and the initialization of the image, which is very important. However, were  several runs make ? Or was the initialization of the neural network weights fixed ? About the PET simulation, some simulation setup is missing, like the system matrix modelling, the number of line of responses.</t>
@@ -14789,11 +14741,7 @@
           <t>Some details are in my opinion missing. Reproducing the paper would require quite some effort.</t>
         </is>
       </c>
-      <c r="D533" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="D533" t="inlineStr"/>
       <c r="E533" t="inlineStr">
         <is>
           <t>The author claims to release the source code and the paper provides enough details to reproduce the paper.</t>
@@ -15658,11 +15606,7 @@
           <t>It is difficult to reproduce without open source codes.</t>
         </is>
       </c>
-      <c r="E565" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="E565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" s="1" t="inlineStr">
